--- a/2024/chemical-engineering/dimensional/次元解析.xlsx
+++ b/2024/chemical-engineering/dimensional/次元解析.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
   <workbookPr showInkAnnotation="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nami/git/experimental-data/chemical-engineering/dimensional/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nami/Git/experimental-data/2024/chemical-engineering/dimensional/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67754B0C-2961-7A46-A89A-45E38F818C9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2721A4C-9EA4-1F4C-BEDD-4EDD32357F1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="480" windowWidth="25600" windowHeight="15520" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="17080" yWindow="860" windowWidth="17120" windowHeight="21380" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="水-空気" sheetId="1" r:id="rId1"/>
@@ -119,32 +119,19 @@
       <name val="Var(--jp-code-font-family)"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
+      <sz val="11"/>
       <name val="游ゴシック"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC65911"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -181,7 +168,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -209,19 +196,16 @@
     <xf numFmtId="11" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -400,13 +384,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>-1.5740312677277188</c:v>
+                  <c:v>-1.817069316414015</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-0.87967922792804754</c:v>
+                  <c:v>-1.1807092235920253</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-0.66882586261315446</c:v>
+                  <c:v>-0.80566382252115909</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1203,9 +1187,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 テーマ">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1243,7 +1227,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1349,7 +1333,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1491,7 +1475,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1501,13 +1485,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{506E29BE-596D-D348-AD0D-5C6B3691C1CB}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" zoomScaleNormal="150" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="P15" sqref="P15"/>
+    <sheetView zoomScaleNormal="150" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12" style="7" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.1640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.5" bestFit="1" customWidth="1"/>
@@ -1531,7 +1516,7 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="10" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -1582,26 +1567,24 @@
       <c r="A2" s="7">
         <v>4.0000000000000002E-4</v>
       </c>
-      <c r="B2">
-        <v>0.59</v>
-      </c>
       <c r="C2" s="4">
         <f>B2/$F2</f>
-        <v>1.18E-2</v>
-      </c>
-      <c r="D2" s="11">
-        <v>5.8999999999999996E-7</v>
+        <v>0</v>
+      </c>
+      <c r="D2" s="7">
+        <f>(13.59-13.21)/1000000</f>
+        <v>3.7999999999999901E-7</v>
       </c>
       <c r="E2" s="4">
         <f>D2/$F2</f>
-        <v>1.18E-8</v>
+        <v>7.5999999999999804E-9</v>
       </c>
       <c r="F2">
         <v>50</v>
       </c>
       <c r="G2" s="3">
         <f>AVERAGE(C2,E2)</f>
-        <v>5.9000058999999997E-3</v>
+        <v>3.7999999999999902E-9</v>
       </c>
       <c r="H2" s="4">
         <f>LOG(0.0004)</f>
@@ -1609,11 +1592,11 @@
       </c>
       <c r="I2" s="4">
         <f>LOG(A2^3/E2)</f>
-        <v>-2.2657020333222384</v>
-      </c>
-      <c r="J2">
+        <v>-2.074633618296903</v>
+      </c>
+      <c r="J2" t="e">
         <f>LOG(A2^3/C2)</f>
-        <v>-8.2657020333222384</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="K2">
         <v>1.1142556400000001</v>
@@ -1643,26 +1626,24 @@
       <c r="A3" s="7">
         <v>6.9999999999999999E-4</v>
       </c>
-      <c r="B3">
-        <v>0.69</v>
-      </c>
       <c r="C3" s="4">
         <f>B3/$F3</f>
-        <v>1.38E-2</v>
+        <v>0</v>
       </c>
       <c r="D3" s="7">
-        <v>6.8999999999999996E-7</v>
+        <f>(12.9-12.2)/1000000</f>
+        <v>7.0000000000000103E-7</v>
       </c>
       <c r="E3" s="4">
         <f>D3/$F3</f>
-        <v>1.3799999999999999E-8</v>
+        <v>1.4000000000000021E-8</v>
       </c>
       <c r="F3">
         <v>50</v>
       </c>
       <c r="G3" s="3">
         <f>AVERAGE(C3,E3)</f>
-        <v>6.9000069000000001E-3</v>
+        <v>7.0000000000000106E-9</v>
       </c>
       <c r="H3" s="4">
         <f>LOG(0.0007)</f>
@@ -1670,11 +1651,11 @@
       </c>
       <c r="I3" s="4">
         <f t="shared" ref="I3:I4" si="0">LOG(A3^3/E3)</f>
-        <v>-1.6045849663584661</v>
-      </c>
-      <c r="J3">
+        <v>-1.6108339156354683</v>
+      </c>
+      <c r="J3" t="e">
         <f t="shared" ref="J3:J4" si="1">LOG(A3^3/C3)</f>
-        <v>-7.6045849663584661</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="K3">
         <v>1.1142556400000001</v>
@@ -1704,26 +1685,25 @@
       <c r="A4" s="8">
         <v>1E-3</v>
       </c>
-      <c r="B4" s="2">
-        <v>0.99</v>
-      </c>
+      <c r="B4" s="8"/>
       <c r="C4" s="6">
         <f>B4/$F4</f>
-        <v>1.9799999999999998E-2</v>
-      </c>
-      <c r="D4" s="10">
-        <v>1.2500000000000001E-6</v>
+        <v>0</v>
+      </c>
+      <c r="D4" s="8">
+        <f>(11.41-10.56)/1000000</f>
+        <v>8.499999999999997E-7</v>
       </c>
       <c r="E4" s="6">
         <f>D4/$F4</f>
-        <v>2.5000000000000002E-8</v>
+        <v>1.6999999999999993E-8</v>
       </c>
       <c r="F4" s="2">
         <v>50</v>
       </c>
       <c r="G4" s="5">
         <f>AVERAGE(C4,E4)</f>
-        <v>9.9000124999999994E-3</v>
+        <v>8.4999999999999967E-9</v>
       </c>
       <c r="H4" s="6">
         <f>LOG(0.001)</f>
@@ -1731,11 +1711,11 @@
       </c>
       <c r="I4" s="4">
         <f t="shared" si="0"/>
-        <v>-1.3979400086720375</v>
-      </c>
-      <c r="J4">
+        <v>-1.2304489213782737</v>
+      </c>
+      <c r="J4" t="e">
         <f t="shared" si="1"/>
-        <v>-7.2966651902615309</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="K4">
         <v>1.1142556400000001</v>
@@ -1786,23 +1766,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13B9F278-A1AA-A24A-8A21-18E88941D277}">
   <dimension ref="A1:P4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="110" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D4"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <cols>
+    <col min="2" max="2" width="10.83203125" style="7"/>
+    <col min="4" max="4" width="10.83203125" style="12"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:16">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="10" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="11" t="s">
         <v>15</v>
       </c>
       <c r="E1" s="1" t="s">
@@ -1842,30 +1826,28 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="20">
+    <row r="2" spans="1:16">
       <c r="A2" s="7">
         <v>4.0000000000000002E-4</v>
       </c>
-      <c r="B2">
-        <v>0.2</v>
-      </c>
       <c r="C2" s="4">
         <f>B2/$F2</f>
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="D2" s="13">
-        <v>1.1999999999999999E-7</v>
+        <v>0</v>
+      </c>
+      <c r="D2" s="7">
+        <f>(26.3-26.09)/1000000</f>
+        <v>2.1000000000000085E-7</v>
       </c>
       <c r="E2" s="4">
         <f>D2/$F2</f>
-        <v>2.4E-9</v>
+        <v>4.2000000000000169E-9</v>
       </c>
       <c r="F2">
         <v>50</v>
       </c>
       <c r="G2" s="3">
         <f>AVERAGE(C2,E2)</f>
-        <v>2.0000012E-3</v>
+        <v>2.1000000000000085E-9</v>
       </c>
       <c r="H2" s="4">
         <f>LOG(0.0004)</f>
@@ -1873,9 +1855,9 @@
       </c>
       <c r="I2">
         <f>LOG(A2^3/E2)</f>
-        <v>-1.5740312677277188</v>
-      </c>
-      <c r="J2" s="12">
+        <v>-1.817069316414015</v>
+      </c>
+      <c r="J2" s="9">
         <v>1.4807352300000001</v>
       </c>
       <c r="K2">
@@ -1899,30 +1881,28 @@
         <v>-3.2707004074045186E-4</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="20">
+    <row r="3" spans="1:16">
       <c r="A3" s="7">
         <v>6.9999999999999999E-4</v>
       </c>
-      <c r="B3">
-        <v>0.16</v>
-      </c>
       <c r="C3" s="4">
         <f>B3/$F3</f>
-        <v>3.2000000000000002E-3</v>
-      </c>
-      <c r="D3" s="13">
-        <v>1.3E-7</v>
+        <v>0</v>
+      </c>
+      <c r="D3" s="7">
+        <f>(39.61-39.35)/1000000</f>
+        <v>2.5999999999999799E-7</v>
       </c>
       <c r="E3" s="4">
         <f>D3/$F3</f>
-        <v>2.6000000000000001E-9</v>
+        <v>5.1999999999999597E-9</v>
       </c>
       <c r="F3">
         <v>50</v>
       </c>
       <c r="G3" s="3">
         <f>AVERAGE(C3,E3)</f>
-        <v>1.6000013000000001E-3</v>
+        <v>2.5999999999999799E-9</v>
       </c>
       <c r="H3" s="4">
         <f>LOG(0.0007)</f>
@@ -1930,9 +1910,9 @@
       </c>
       <c r="I3">
         <f t="shared" ref="I3:I4" si="0">LOG(A3^3/E3)</f>
-        <v>-0.87967922792804754</v>
-      </c>
-      <c r="J3" s="12">
+        <v>-1.1807092235920253</v>
+      </c>
+      <c r="J3" s="9">
         <v>1.4807352300000001</v>
       </c>
       <c r="K3">
@@ -1956,30 +1936,29 @@
         <v>-3.2707004074045186E-4</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="20">
+    <row r="4" spans="1:16">
       <c r="A4" s="8">
         <v>1.0499999999999999E-3</v>
       </c>
-      <c r="B4" s="2">
-        <v>0.17</v>
-      </c>
+      <c r="B4" s="8"/>
       <c r="C4" s="6">
         <f>B4/$F4</f>
-        <v>3.4000000000000002E-3</v>
-      </c>
-      <c r="D4" s="13">
-        <v>2.7000000000000001E-7</v>
+        <v>0</v>
+      </c>
+      <c r="D4" s="8">
+        <f>(23.4-23.03)/1000000</f>
+        <v>3.6999999999999746E-7</v>
       </c>
       <c r="E4" s="6">
         <f>D4/$F4</f>
-        <v>5.4000000000000004E-9</v>
+        <v>7.3999999999999496E-9</v>
       </c>
       <c r="F4" s="2">
         <v>50</v>
       </c>
       <c r="G4" s="5">
         <f>AVERAGE(C4,E4)</f>
-        <v>1.7000027000000002E-3</v>
+        <v>3.6999999999999748E-9</v>
       </c>
       <c r="H4" s="6">
         <f>LOG(0.00105)</f>
@@ -1987,9 +1966,9 @@
       </c>
       <c r="I4">
         <f t="shared" si="0"/>
-        <v>-0.66882586261315446</v>
-      </c>
-      <c r="J4" s="12">
+        <v>-0.80566382252115909</v>
+      </c>
+      <c r="J4" s="9">
         <v>1.4807352300000001</v>
       </c>
       <c r="K4">
@@ -2024,12 +2003,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5E9A7EB-04CF-0F47-B004-C6DE9FBE9A28}">
   <dimension ref="A1:P4"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <cols>
+    <col min="2" max="2" width="10.83203125" style="7"/>
     <col min="11" max="11" width="15.1640625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2037,7 +2017,7 @@
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="10" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -2087,36 +2067,34 @@
       <c r="A2" s="7">
         <v>4.0000000000000002E-4</v>
       </c>
-      <c r="B2">
-        <v>0.5</v>
-      </c>
       <c r="C2" s="4">
         <f>B2/$F2</f>
-        <v>0.01</v>
-      </c>
-      <c r="D2" s="9">
-        <v>4.8999999999999997E-7</v>
+        <v>0</v>
+      </c>
+      <c r="D2" s="7">
+        <f>(38.31-37.71)/1000000</f>
+        <v>6.0000000000000146E-7</v>
       </c>
       <c r="E2" s="4">
         <f>D2/$F2</f>
-        <v>9.8000000000000001E-9</v>
+        <v>1.200000000000003E-8</v>
       </c>
       <c r="F2">
         <v>50</v>
       </c>
       <c r="G2" s="3">
         <f>AVERAGE(C2,E2)</f>
-        <v>5.0000049000000005E-3</v>
+        <v>6.0000000000000148E-9</v>
       </c>
       <c r="H2" s="4">
         <f>LOG(0.0004)</f>
         <v>-3.3979400086720375</v>
       </c>
-      <c r="I2">
+      <c r="I2" t="e">
         <f>LOG(A2^3/C2)</f>
-        <v>-8.1938200260161125</v>
-      </c>
-      <c r="J2" s="12">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J2" s="9">
         <v>1.1170028999999999</v>
       </c>
       <c r="K2">
@@ -2144,36 +2122,34 @@
       <c r="A3" s="7">
         <v>6.9999999999999999E-4</v>
       </c>
-      <c r="B3">
-        <v>0.7</v>
-      </c>
       <c r="C3" s="4">
         <f>B3/$F3</f>
-        <v>1.3999999999999999E-2</v>
+        <v>0</v>
       </c>
       <c r="D3" s="7">
-        <v>6.9999999999999997E-7</v>
+        <f>(34.41-33.52)/1000000</f>
+        <v>8.8999999999999349E-7</v>
       </c>
       <c r="E3" s="4">
         <f>D3/$F3</f>
-        <v>1.4E-8</v>
+        <v>1.7799999999999868E-8</v>
       </c>
       <c r="F3">
         <v>50</v>
       </c>
       <c r="G3" s="3">
         <f>AVERAGE(C3,E3)</f>
-        <v>7.0000069999999991E-3</v>
+        <v>8.8999999999999341E-9</v>
       </c>
       <c r="H3" s="4">
         <f>LOG(0.0007)</f>
         <v>-3.1549019599857431</v>
       </c>
-      <c r="I3">
+      <c r="I3" t="e">
         <f t="shared" ref="I3:I4" si="0">LOG(A3^3/C3)</f>
-        <v>-7.6108339156354674</v>
-      </c>
-      <c r="J3" s="12">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J3" s="9">
         <v>1.1170028999999999</v>
       </c>
       <c r="K3">
@@ -2201,36 +2177,34 @@
       <c r="A4" s="8">
         <v>1E-3</v>
       </c>
-      <c r="B4" s="2">
-        <v>1</v>
-      </c>
       <c r="C4" s="6">
         <f>B4/$F4</f>
-        <v>0.02</v>
-      </c>
-      <c r="D4" s="8">
-        <v>9.9999999999999995E-7</v>
+        <v>0</v>
+      </c>
+      <c r="D4" s="7">
+        <f>(36.72-35.53)/1000000</f>
+        <v>1.1899999999999977E-6</v>
       </c>
       <c r="E4" s="6">
         <f>D4/$F4</f>
-        <v>2E-8</v>
+        <v>2.3799999999999955E-8</v>
       </c>
       <c r="F4" s="2">
         <v>50</v>
       </c>
       <c r="G4" s="5">
         <f>AVERAGE(C4,E4)</f>
-        <v>1.000001E-2</v>
+        <v>1.1899999999999978E-8</v>
       </c>
       <c r="H4" s="6">
         <f>LOG(0.001)</f>
         <v>-3</v>
       </c>
-      <c r="I4">
+      <c r="I4" t="e">
         <f t="shared" si="0"/>
-        <v>-7.3010299956639813</v>
-      </c>
-      <c r="J4" s="12">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J4" s="9">
         <v>1.1170028999999999</v>
       </c>
       <c r="K4">
